--- a/Resources/Data.xlsx
+++ b/Resources/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="4950"/>
   </bookViews>
   <sheets>
     <sheet name="MemberDetails" sheetId="1" r:id="rId1"/>
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Resources/Data.xlsx
+++ b/Resources/Data.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="4950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="3495" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MemberDetails" sheetId="1" r:id="rId1"/>
     <sheet name="UserAccountTypes" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:N9"/>
 </workbook>
 </file>
 
@@ -164,7 +165,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -546,7 +547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -790,7 +791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/Resources/Data.xlsx
+++ b/Resources/Data.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="3495" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="3495"/>
   </bookViews>
   <sheets>
     <sheet name="MemberDetails" sheetId="1" r:id="rId1"/>
     <sheet name="UserAccountTypes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N9"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
   <si>
     <t>Savings Account</t>
   </si>
@@ -160,12 +159,18 @@
   </si>
   <si>
     <t>admin@gmail.com</t>
+  </si>
+  <si>
+    <t>MEM005</t>
+  </si>
+  <si>
+    <t>TestUser40</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -545,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,12 +781,51 @@
         <v>47</v>
       </c>
     </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2">
+        <v>33188</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6">
+        <v>570012</v>
+      </c>
+      <c r="J6">
+        <v>9879879870</v>
+      </c>
+      <c r="K6">
+        <v>2813928232</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="L2" r:id="rId1"/>
     <hyperlink ref="L3" r:id="rId2"/>
     <hyperlink ref="L4" r:id="rId3"/>
     <hyperlink ref="L5" r:id="rId4"/>
+    <hyperlink ref="L6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -791,7 +835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/Resources/Data.xlsx
+++ b/Resources/Data.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="3495"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="3495" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MemberDetails" sheetId="1" r:id="rId1"/>
     <sheet name="UserAccountTypes" sheetId="2" r:id="rId2"/>
+    <sheet name="TRANSACTION_DATA" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
   <si>
     <t>Savings Account</t>
   </si>
@@ -165,13 +166,55 @@
   </si>
   <si>
     <t>TestUser40</t>
+  </si>
+  <si>
+    <t>TRANSACTION_AMOUNT</t>
+  </si>
+  <si>
+    <t>TRANSACTION_TYPE</t>
+  </si>
+  <si>
+    <t>TRANSACTION_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>SUBMITTED_AT</t>
+  </si>
+  <si>
+    <t>TXN001</t>
+  </si>
+  <si>
+    <t>TXN002</t>
+  </si>
+  <si>
+    <t>TXN003</t>
+  </si>
+  <si>
+    <t>TXN004</t>
+  </si>
+  <si>
+    <t>TXN005</t>
+  </si>
+  <si>
+    <t>TXN006</t>
+  </si>
+  <si>
+    <t>TXN007</t>
+  </si>
+  <si>
+    <t>TXN008</t>
+  </si>
+  <si>
+    <t>TXN009</t>
+  </si>
+  <si>
+    <t>TXN010</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +234,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -238,13 +289,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -552,7 +609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -888,4 +945,97 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="27" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Resources/Data.xlsx
+++ b/Resources/Data.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="3495" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="3495"/>
   </bookViews>
   <sheets>
     <sheet name="MemberDetails" sheetId="1" r:id="rId1"/>
     <sheet name="UserAccountTypes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N9"/>
+  <oleSize ref="A1:K9"/>
 </workbook>
 </file>
 
@@ -547,7 +547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -791,7 +791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/Resources/Data.xlsx
+++ b/Resources/Data.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="3495"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="3255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MemberDetails" sheetId="1" r:id="rId1"/>
     <sheet name="UserAccountTypes" sheetId="2" r:id="rId2"/>
+    <sheet name="MemberPayment" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K9"/>
+  <oleSize ref="A1:J8"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
   <si>
     <t>Savings Account</t>
   </si>
@@ -160,6 +161,33 @@
   </si>
   <si>
     <t>admin@gmail.com</t>
+  </si>
+  <si>
+    <t>TXN001</t>
+  </si>
+  <si>
+    <t>Transaction_Name</t>
+  </si>
+  <si>
+    <t>Transaction_Login</t>
+  </si>
+  <si>
+    <t>Transaction_Type</t>
+  </si>
+  <si>
+    <t>Transaction_Amount</t>
+  </si>
+  <si>
+    <t>Transaction_Description</t>
+  </si>
+  <si>
+    <t>Savings to Current</t>
+  </si>
+  <si>
+    <t>Miscellaneous Expense</t>
+  </si>
+  <si>
+    <t>TestUser01</t>
   </si>
 </sst>
 </file>
@@ -233,13 +261,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -547,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,7 +821,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,4 +873,70 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="4">
+        <v>534</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Resources/Data.xlsx
+++ b/Resources/Data.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="3495" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="3495"/>
   </bookViews>
   <sheets>
     <sheet name="MemberDetails" sheetId="1" r:id="rId1"/>
     <sheet name="UserAccountTypes" sheetId="2" r:id="rId2"/>
-    <sheet name="TRANSACTION_DATA" sheetId="3" r:id="rId3"/>
+    <sheet name="TransactionData" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="68">
   <si>
     <t>Savings Account</t>
   </si>
@@ -208,6 +208,18 @@
   </si>
   <si>
     <t>TXN010</t>
+  </si>
+  <si>
+    <t>Savings to Current</t>
+  </si>
+  <si>
+    <t>Miscellaneous Expenses</t>
+  </si>
+  <si>
+    <t>MEM006</t>
+  </si>
+  <si>
+    <t>TestUser41</t>
   </si>
 </sst>
 </file>
@@ -607,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,6 +888,44 @@
         <v>44</v>
       </c>
     </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2">
+        <v>33188</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7">
+        <v>570012</v>
+      </c>
+      <c r="J7">
+        <v>9879879870</v>
+      </c>
+      <c r="K7">
+        <v>2813928232</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="L2" r:id="rId1"/>
@@ -883,6 +933,7 @@
     <hyperlink ref="L4" r:id="rId3"/>
     <hyperlink ref="L5" r:id="rId4"/>
     <hyperlink ref="L6" r:id="rId5"/>
+    <hyperlink ref="L7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -951,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,6 +1036,15 @@
       <c r="A2" s="5" t="s">
         <v>54</v>
       </c>
+      <c r="B2" s="5">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">

--- a/Resources/Data.xlsx
+++ b/Resources/Data.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="3255" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="3495"/>
   </bookViews>
   <sheets>
     <sheet name="MemberDetails" sheetId="1" r:id="rId1"/>
     <sheet name="UserAccountTypes" sheetId="2" r:id="rId2"/>
-    <sheet name="MemberPayment" sheetId="3" r:id="rId3"/>
+    <sheet name="TransactionData" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J8"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="68">
   <si>
     <t>Savings Account</t>
   </si>
@@ -163,38 +162,71 @@
     <t>admin@gmail.com</t>
   </si>
   <si>
+    <t>MEM005</t>
+  </si>
+  <si>
+    <t>TestUser40</t>
+  </si>
+  <si>
+    <t>TRANSACTION_AMOUNT</t>
+  </si>
+  <si>
+    <t>TRANSACTION_TYPE</t>
+  </si>
+  <si>
+    <t>TRANSACTION_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>SUBMITTED_AT</t>
+  </si>
+  <si>
     <t>TXN001</t>
   </si>
   <si>
-    <t>Transaction_Name</t>
-  </si>
-  <si>
-    <t>Transaction_Login</t>
-  </si>
-  <si>
-    <t>Transaction_Type</t>
-  </si>
-  <si>
-    <t>Transaction_Amount</t>
-  </si>
-  <si>
-    <t>Transaction_Description</t>
+    <t>TXN002</t>
+  </si>
+  <si>
+    <t>TXN003</t>
+  </si>
+  <si>
+    <t>TXN004</t>
+  </si>
+  <si>
+    <t>TXN005</t>
+  </si>
+  <si>
+    <t>TXN006</t>
+  </si>
+  <si>
+    <t>TXN007</t>
+  </si>
+  <si>
+    <t>TXN008</t>
+  </si>
+  <si>
+    <t>TXN009</t>
+  </si>
+  <si>
+    <t>TXN010</t>
   </si>
   <si>
     <t>Savings to Current</t>
   </si>
   <si>
-    <t>Miscellaneous Expense</t>
-  </si>
-  <si>
-    <t>TestUser01</t>
+    <t>Miscellaneous Expenses</t>
+  </si>
+  <si>
+    <t>MEM006</t>
+  </si>
+  <si>
+    <t>TestUser41</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +246,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -261,14 +301,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -574,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,12 +850,90 @@
         <v>47</v>
       </c>
     </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2">
+        <v>33188</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6">
+        <v>570012</v>
+      </c>
+      <c r="J6">
+        <v>9879879870</v>
+      </c>
+      <c r="K6">
+        <v>2813928232</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2">
+        <v>33188</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7">
+        <v>570012</v>
+      </c>
+      <c r="J7">
+        <v>9879879870</v>
+      </c>
+      <c r="K7">
+        <v>2813928232</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="L2" r:id="rId1"/>
     <hyperlink ref="L3" r:id="rId2"/>
     <hyperlink ref="L4" r:id="rId3"/>
     <hyperlink ref="L5" r:id="rId4"/>
+    <hyperlink ref="L6" r:id="rId5"/>
+    <hyperlink ref="L7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -821,7 +944,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,23 +1000,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="19" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="27" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -901,41 +1023,78 @@
         <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="5">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="4">
-        <v>534</v>
-      </c>
-      <c r="E2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25"/>
+      <c r="B4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Resources/Data.xlsx
+++ b/Resources/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="3495"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="3255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MemberDetails" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="TransactionData" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:G8"/>
 </workbook>
 </file>
 
@@ -225,7 +226,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -621,7 +622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -1002,7 +1003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>

--- a/Resources/Data.xlsx
+++ b/Resources/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="3495"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="3495" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MemberDetails" sheetId="1" r:id="rId1"/>
@@ -621,7 +621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -1002,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Resources/Data.xlsx
+++ b/Resources/Data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
   <si>
     <t>Savings Account</t>
   </si>
@@ -213,13 +213,16 @@
     <t>Savings to Current</t>
   </si>
   <si>
-    <t>Miscellaneous Expenses</t>
-  </si>
-  <si>
     <t>MEM006</t>
   </si>
   <si>
     <t>TestUser41</t>
+  </si>
+  <si>
+    <t>Miscellaneous Expenses2</t>
+  </si>
+  <si>
+    <t>Miscellaneous Expenses1</t>
   </si>
 </sst>
 </file>
@@ -890,13 +893,13 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
         <v>66</v>
       </c>
-      <c r="B7" t="s">
-        <v>67</v>
-      </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -1003,7 +1006,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1043,14 +1046,22 @@
         <v>64</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" s="5">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">

--- a/Resources/Data.xlsx
+++ b/Resources/Data.xlsx
@@ -304,7 +304,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -315,6 +315,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1006,7 +1009,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,8 +1042,8 @@
       <c r="A2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="5">
-        <v>10</v>
+      <c r="B2" s="6">
+        <v>0.1</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>64</v>
@@ -1053,8 +1056,8 @@
       <c r="A3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="5">
-        <v>10</v>
+      <c r="B3" s="6">
+        <v>0.1</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>64</v>
@@ -1108,5 +1111,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Resources/Data.xlsx
+++ b/Resources/Data.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="3495" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="3495" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="MemberDetails" sheetId="1" r:id="rId1"/>
     <sheet name="UserAccountTypes" sheetId="2" r:id="rId2"/>
     <sheet name="TransactionData" sheetId="3" r:id="rId3"/>
+    <sheet name="TransactionType" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="104">
   <si>
     <t>Savings Account</t>
   </si>
@@ -223,12 +224,117 @@
   </si>
   <si>
     <t>Miscellaneous Expenses1</t>
+  </si>
+  <si>
+    <t>Current to Current</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Current to Debit</t>
+  </si>
+  <si>
+    <t>Debit account</t>
+  </si>
+  <si>
+    <t>Current to FD</t>
+  </si>
+  <si>
+    <t>Fixed Deposit</t>
+  </si>
+  <si>
+    <t>Current to FD (Self)</t>
+  </si>
+  <si>
+    <t>Current to RD</t>
+  </si>
+  <si>
+    <t>Recurring Deposit</t>
+  </si>
+  <si>
+    <t>Current to RD (Self)</t>
+  </si>
+  <si>
+    <t>Current to Savings</t>
+  </si>
+  <si>
+    <t>Savings</t>
+  </si>
+  <si>
+    <t>Current to Savings(Self)</t>
+  </si>
+  <si>
+    <t>Current to invoice</t>
+  </si>
+  <si>
+    <t>Debit to Current</t>
+  </si>
+  <si>
+    <t>Debit to Savings</t>
+  </si>
+  <si>
+    <t>Debit to member</t>
+  </si>
+  <si>
+    <t>Member account</t>
+  </si>
+  <si>
+    <t>Debit to organization</t>
+  </si>
+  <si>
+    <t>Invoice Collection</t>
+  </si>
+  <si>
+    <t>Initial Credit FD</t>
+  </si>
+  <si>
+    <t>Initial credit</t>
+  </si>
+  <si>
+    <t>Loan</t>
+  </si>
+  <si>
+    <t>Money deposit</t>
+  </si>
+  <si>
+    <t>Organization to debit</t>
+  </si>
+  <si>
+    <t>Savings to Current(Self)</t>
+  </si>
+  <si>
+    <t>Savings to Debit</t>
+  </si>
+  <si>
+    <t>Savings to FD</t>
+  </si>
+  <si>
+    <t>Savings to FD (Self)</t>
+  </si>
+  <si>
+    <t>Savings to Invoice</t>
+  </si>
+  <si>
+    <t>Savings to RD</t>
+  </si>
+  <si>
+    <t>Savings to RD(Self)</t>
+  </si>
+  <si>
+    <t>Savings to Savings</t>
+  </si>
+  <si>
+    <t>FROM_ACCOUNT</t>
+  </si>
+  <si>
+    <t>TO_ACCOUNT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1008,9 +1114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1110,7 +1214,351 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C1048576">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>TransactionType!$A$2:$A$28</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Resources/Data.xlsx
+++ b/Resources/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="3495" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="3495"/>
   </bookViews>
   <sheets>
     <sheet name="MemberDetails" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="109">
   <si>
     <t>Savings Account</t>
   </si>
@@ -329,6 +329,21 @@
   </si>
   <si>
     <t>TO_ACCOUNT</t>
+  </si>
+  <si>
+    <t>MEM007</t>
+  </si>
+  <si>
+    <t>TestUser52</t>
+  </si>
+  <si>
+    <t>Miscellaneous Expenses3</t>
+  </si>
+  <si>
+    <t>MEM008</t>
+  </si>
+  <si>
+    <t>TestUser01</t>
   </si>
 </sst>
 </file>
@@ -731,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,6 +1053,82 @@
         <v>44</v>
       </c>
     </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2">
+        <v>33189</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8">
+        <v>570012</v>
+      </c>
+      <c r="J8">
+        <v>9879879870</v>
+      </c>
+      <c r="K8">
+        <v>2813928232</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2">
+        <v>33190</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9">
+        <v>570012</v>
+      </c>
+      <c r="J9">
+        <v>9879879870</v>
+      </c>
+      <c r="K9">
+        <v>2813928232</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="L2" r:id="rId1"/>
@@ -1046,6 +1137,8 @@
     <hyperlink ref="L5" r:id="rId4"/>
     <hyperlink ref="L6" r:id="rId5"/>
     <hyperlink ref="L7" r:id="rId6"/>
+    <hyperlink ref="L8" r:id="rId7"/>
+    <hyperlink ref="L9" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1114,7 +1207,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1174,7 +1269,15 @@
       <c r="A4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B4"/>
+      <c r="B4" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -1215,7 +1318,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C1048576">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -1228,7 +1331,7 @@
           <x14:formula1>
             <xm:f>TransactionType!$A$2:$A$28</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C3</xm:sqref>
+          <xm:sqref>C2:C4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1240,8 +1343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Resources/Data.xlsx
+++ b/Resources/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="3495"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="3495" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MemberDetails" sheetId="1" r:id="rId1"/>
@@ -349,7 +349,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -748,7 +748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1207,7 +1207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
